--- a/Data_Items_And_Sources_2019.xlsx
+++ b/Data_Items_And_Sources_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Citywide\Data Products\Neighborhood SocioEconomic Profiles\ACS Profiles\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason Sherba\Documents\2021_03_10_socioeconomic_profiles\socio-economic-profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4947DF8B-C577-4F02-9A0E-290CD7614705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBE2C81-A1AD-4B2B-9C46-0D25D5DAEDF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="0" windowWidth="24585" windowHeight="17550" xr2:uid="{CA0F7D12-9E7D-4A11-A701-7180598AEE0F}"/>
+    <workbookView minimized="1" xWindow="5545" yWindow="3600" windowWidth="2820" windowHeight="1080" xr2:uid="{CA0F7D12-9E7D-4A11-A701-7180598AEE0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2474,25 +2474,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA98F6D2-DA43-4BC6-AC99-8920B71EB99F}">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="C73" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.3515625" defaultRowHeight="10.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="3"/>
-    <col min="3" max="3" width="44.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="3"/>
+    <col min="1" max="1" width="13.64453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.3515625" style="3"/>
+    <col min="3" max="3" width="44.64453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="71.64453125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.3515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>210</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
         <v>211</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A13" s="7" t="s">
         <v>212</v>
       </c>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>213</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B22" s="22" t="s">
         <v>18</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B27" s="18" t="s">
         <v>23</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>214</v>
       </c>
@@ -2787,12 +2787,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C29" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B30" s="4" t="s">
         <v>24</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B31" s="4" t="s">
         <v>25</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B32" s="4" t="s">
         <v>26</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B33" s="6" t="s">
         <v>27</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>215</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B35" s="4" t="s">
         <v>28</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
         <v>216</v>
       </c>
@@ -2863,12 +2863,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C37" s="13" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B38" s="4" t="s">
         <v>29</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B39" s="4" t="s">
         <v>30</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B40" s="4" t="s">
         <v>31</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B41" s="4" t="s">
         <v>32</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B42" s="4" t="s">
         <v>33</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>217</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B44" s="4" t="s">
         <v>34</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B45" s="4" t="s">
         <v>35</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B46" s="4" t="s">
         <v>36</v>
       </c>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="H46" s="14"/>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B47" s="4" t="s">
         <v>37</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
@@ -2987,12 +2987,12 @@
         <v>614</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A49" s="14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>218</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B51" s="18" t="s">
         <v>78</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A52" s="7" t="s">
         <v>219</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B53" s="4" t="s">
         <v>79</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B54" s="6" t="s">
         <v>80</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
         <v>220</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B56" s="4" t="s">
         <v>82</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B57" s="4" t="s">
         <v>83</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B58" s="4" t="s">
         <v>84</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B59" s="4" t="s">
         <v>85</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B60" s="4" t="s">
         <v>86</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B61" s="19" t="s">
         <v>88</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B62" s="19" t="s">
         <v>87</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B63" s="4" t="s">
         <v>89</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B64" s="6" t="s">
         <v>90</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>221</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B66" s="4" t="s">
         <v>91</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B67" s="4" t="s">
         <v>92</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B68" s="4" t="s">
         <v>93</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B69" s="4" t="s">
         <v>95</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B70" s="4" t="s">
         <v>94</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B71" s="6" t="s">
         <v>96</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
         <v>222</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B73" s="4" t="s">
         <v>97</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B74" s="4" t="s">
         <v>98</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B75" s="4" t="s">
         <v>99</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B76" s="4" t="s">
         <v>100</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B77" s="6" t="s">
         <v>101</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>223</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B79" s="19" t="s">
         <v>102</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B80" s="19" t="s">
         <v>103</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B81" s="19" t="s">
         <v>104</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B82" s="18" t="s">
         <v>105</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
         <v>224</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B84" s="4" t="s">
         <v>107</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B85" s="4" t="s">
         <v>108</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B86" s="4" t="s">
         <v>109</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B87" s="4" t="s">
         <v>110</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B88" s="4" t="s">
         <v>111</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B89" s="6" t="s">
         <v>191</v>
       </c>
@@ -3429,12 +3429,12 @@
         <v>620</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A90" s="14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A91" s="15" t="s">
         <v>225</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B92" s="19" t="s">
         <v>147</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B93" s="19" t="s">
         <v>148</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B94" s="4" t="s">
         <v>149</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B95" s="6" t="s">
         <v>150</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A96" s="4" t="s">
         <v>226</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B97" s="35" t="s">
         <v>151</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B98" s="4" t="s">
         <v>152</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B99" s="4" t="s">
         <v>153</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B100" s="4" t="s">
         <v>154</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B101" s="4" t="s">
         <v>156</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B102" s="4" t="s">
         <v>155</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B103" s="4" t="s">
         <v>157</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B104" s="4" t="s">
         <v>158</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B105" s="6" t="s">
         <v>159</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A106" s="4" t="s">
         <v>227</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B107" s="4" t="s">
         <v>160</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B108" s="4" t="s">
         <v>161</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B109" s="4" t="s">
         <v>162</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B110" s="4" t="s">
         <v>164</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B111" s="4" t="s">
         <v>163</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B112" s="4" t="s">
         <v>165</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B113" s="4" t="s">
         <v>166</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B114" s="4" t="s">
         <v>167</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B115" s="6" t="s">
         <v>168</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A116" s="4" t="s">
         <v>228</v>
       </c>
@@ -3729,19 +3729,19 @@
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.3515625" defaultRowHeight="10.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.17578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.64453125" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="20"/>
-    <col min="6" max="6" width="7.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.33203125" style="20"/>
+    <col min="5" max="5" width="9.3515625" style="20"/>
+    <col min="6" max="6" width="7.8203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.17578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.3515625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="20" t="s">
         <v>229</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="20">
         <v>24</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="20">
         <v>25</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="20">
         <v>26</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="20">
         <v>28</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="20">
         <v>30</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="20">
         <v>31</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="20">
         <v>32</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" s="20">
         <v>33</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" s="20">
         <v>34</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" s="20">
         <v>36</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" s="20">
         <v>37</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" s="20">
         <v>38</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="20">
         <v>39</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="20">
         <v>40</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" s="20">
         <v>41</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" s="20">
         <v>42</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" s="20">
         <v>43</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" s="20">
         <v>44</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" s="20">
         <v>45</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" s="20">
         <v>46</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" s="20">
         <v>47</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" s="20">
         <v>48</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" s="20">
         <v>49</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" s="20">
         <v>50</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" s="20">
         <v>51</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" s="20">
         <v>53</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" s="20">
         <v>54</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" s="20">
         <v>55</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" s="20">
         <v>56</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58" s="20">
         <v>57</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59" s="20">
         <v>58</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" s="20">
         <v>59</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" s="20">
         <v>60</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" s="20">
         <v>61</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A63" s="20">
         <v>62</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A64" s="20">
         <v>63</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A65" s="20">
         <v>64</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A66" s="20">
         <v>65</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A67" s="20">
         <v>66</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A68" s="20">
         <v>67</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A69" s="20">
         <v>68</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A70" s="20">
         <v>69</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A71" s="20">
         <v>70</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A72" s="20">
         <v>71</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A73" s="20">
         <v>72</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A74" s="20">
         <v>73</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A75" s="20">
         <v>74</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A76" s="20">
         <v>75</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A77" s="20">
         <v>76</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A78" s="20">
         <v>77</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A79" s="20">
         <v>78</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A80" s="20">
         <v>79</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A81" s="20">
         <v>80</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A82" s="20">
         <v>81</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A83" s="20">
         <v>82</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A84" s="20">
         <v>83</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A85" s="20">
         <v>84</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A86" s="20">
         <v>85</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A87" s="20">
         <v>86</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A88" s="20">
         <v>87</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A89" s="20">
         <v>88</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A90" s="20">
         <v>89</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A91" s="20">
         <v>90</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A92" s="20">
         <v>91</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A93" s="20">
         <v>92</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A94" s="20">
         <v>93</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A95" s="20">
         <v>94</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A96" s="20">
         <v>95</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A97" s="20">
         <v>96</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A98" s="20">
         <v>97</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A99" s="20">
         <v>98</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A100" s="20">
         <v>99</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A101" s="20">
         <v>100</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A102" s="20">
         <v>101</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A103" s="20">
         <v>102</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A104" s="20">
         <v>103</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A105" s="20">
         <v>104</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A106" s="20">
         <v>105</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A107" s="20">
         <v>106</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A108" s="20">
         <v>107</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A109" s="20">
         <v>108</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A110" s="20">
         <v>109</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A111" s="20">
         <v>110</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A112" s="20">
         <v>111</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A113" s="20">
         <v>112</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A114" s="20">
         <v>113</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A115" s="20">
         <v>114</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A116" s="20">
         <v>115</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A117" s="20">
         <v>116</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A118" s="20">
         <v>117</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A119" s="20">
         <v>118</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A120" s="20">
         <v>119</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A121" s="20">
         <v>120</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A122" s="20">
         <v>121</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A123" s="20">
         <v>122</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A124" s="20">
         <v>123</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A125" s="20">
         <v>124</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A126" s="20">
         <v>125</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A127" s="20">
         <v>126</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A128" s="20">
         <v>127</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A129" s="20">
         <v>128</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A130" s="20">
         <v>129</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A131" s="20">
         <v>130</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A132" s="20">
         <v>131</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A133" s="20">
         <v>132</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A134" s="20">
         <v>133</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A135" s="20">
         <v>134</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A136" s="20">
         <v>135</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="11.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A137" s="20">
         <v>136</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A138" s="20">
         <v>137</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A139" s="20">
         <v>138</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A140" s="20">
         <v>139</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A141" s="20">
         <v>140</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A142" s="20">
         <v>141</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A143" s="20">
         <v>142</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A144" s="20">
         <v>143</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A145" s="20">
         <v>144</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A146" s="20">
         <v>145</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A147" s="20">
         <v>146</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A148" s="20">
         <v>147</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A149" s="20">
         <v>148</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A150" s="20">
         <v>149</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A151" s="20">
         <v>150</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A152" s="20">
         <v>151</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A153" s="20">
         <v>152</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A154" s="20">
         <v>153</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A155" s="20">
         <v>154</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A156" s="20">
         <v>155</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A157" s="20">
         <v>156</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A158" s="20">
         <v>157</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A159" s="20">
         <v>158</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A160" s="20">
         <v>159</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A161" s="20">
         <v>160</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A162" s="20">
         <v>161</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A163" s="20">
         <v>162</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A164" s="20">
         <v>163</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A165" s="20">
         <v>164</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A166" s="20">
         <v>165</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A167" s="20">
         <v>166</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A168" s="20">
         <v>167</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A169" s="20">
         <v>168</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A170" s="20">
         <v>169</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A171" s="20">
         <v>170</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="11.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A172" s="20">
         <v>171</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A173" s="20">
         <v>172</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A174" s="20">
         <v>173</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A175" s="20">
         <v>174</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A176" s="20">
         <v>175</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A177" s="20">
         <v>176</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A178" s="20">
         <v>177</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A179" s="20">
         <v>178</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A180" s="20">
         <v>179</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A181" s="20">
         <v>180</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A182" s="20">
         <v>181</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A183" s="20">
         <v>182</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A184" s="20">
         <v>183</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A185" s="20">
         <v>184</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A186" s="20">
         <v>185</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A187" s="20">
         <v>186</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A188" s="20">
         <v>187</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A189" s="20">
         <v>188</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A190" s="20">
         <v>189</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A191" s="20">
         <v>190</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A192" s="20">
         <v>191</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A193" s="20">
         <v>192</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A194" s="20">
         <v>193</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A195" s="20">
         <v>194</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A196" s="20">
         <v>195</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A197" s="20">
         <v>196</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A198" s="20">
         <v>197</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A199" s="20">
         <v>198</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A200" s="20">
         <v>199</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A201" s="20">
         <v>200</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A202" s="20">
         <v>201</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A203" s="20">
         <v>202</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A204" s="20">
         <v>203</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A205" s="20">
         <v>204</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A206" s="20">
         <v>205</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>19082</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A207" s="20">
         <v>206</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A208" s="20">
         <v>207</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A209" s="20">
         <v>208</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A210" s="20">
         <v>209</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A211" s="20">
         <v>210</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A212" s="20">
         <v>211</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A213" s="20">
         <v>212</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A214" s="20">
         <v>213</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>10977</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A215" s="20">
         <v>214</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A216" s="20">
         <v>215</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>6532</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A217" s="20">
         <v>216</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>7651</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A218" s="20">
         <v>217</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>4663</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A219" s="20">
         <v>218</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>5439</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A220" s="20">
         <v>219</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>104369</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A221" s="20">
         <v>220</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>33951</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A222" s="20">
         <v>221</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>19091</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A223" s="20">
         <v>222</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>157411</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A224" s="20">
         <v>223</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>0.22828043175921722</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A225" s="20">
         <v>224</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A226" s="20">
         <v>225</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A227" s="32">
         <v>226</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A228" s="20">
         <v>227</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A229" s="20">
         <v>228</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A230" s="20">
         <v>229</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A231" s="20">
         <v>230</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A232" s="20">
         <v>231</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A233" s="20">
         <v>232</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A234" s="20">
         <v>233</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A235" s="20">
         <v>234</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A236" s="20">
         <v>235</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A237" s="20">
         <v>236</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A238" s="20">
         <v>237</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A239" s="20">
         <v>238</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A240" s="20">
         <v>239</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A241" s="20">
         <v>240</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A242" s="20">
         <v>241</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A243" s="20">
         <v>242</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A244" s="20">
         <v>243</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A245" s="20">
         <v>244</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A246" s="20">
         <v>245</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A247" s="20">
         <v>246</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A248" s="20">
         <v>247</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A249" s="20">
         <v>248</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A250" s="20">
         <v>249</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A251" s="20">
         <v>250</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A252" s="20">
         <v>251</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A253" s="20">
         <v>252</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A254" s="20">
         <v>253</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A255" s="20">
         <v>254</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A256" s="20">
         <v>255</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A257" s="20">
         <v>256</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A258" s="20">
         <v>257</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A259" s="20">
         <v>258</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A260" s="20">
         <v>259</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A261" s="20">
         <v>260</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A262" s="20">
         <v>261</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A263" s="20">
         <v>262</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A264" s="20">
         <v>263</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A265" s="20">
         <v>264</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A266" s="20">
         <v>265</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A267" s="20">
         <v>266</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A268" s="20">
         <v>267</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A269" s="20">
         <v>268</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A270" s="20">
         <v>269</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A271" s="20">
         <v>270</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A272" s="20">
         <v>271</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A273" s="20">
         <v>272</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A274" s="20">
         <v>273</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A275" s="20">
         <v>274</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A276" s="20">
         <v>275</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A277" s="20">
         <v>276</v>
       </c>
